--- a/HPC_results/Warfarin_3000.xlsx
+++ b/HPC_results/Warfarin_3000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanjo/Documents/SEMESTER 7/Phebe Research/prescriptive-trees/HPC_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{228D474D-7737-E946-9BBC-57F4D91B7186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3BF9D051-E2A4-4347-84FF-3F07A2F02A03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IST_2000" sheetId="1" r:id="rId1"/>
@@ -678,6 +678,8 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,8 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1053,8 +1053,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AR83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,134 +1068,134 @@
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="I1">
         <f>SUBTOTAL(1, I4:I78)</f>
-        <v>761.81578947368416</v>
-      </c>
-      <c r="J1" s="7">
+        <v>1109.3333333333333</v>
+      </c>
+      <c r="J1" s="2">
         <f>SUBTOTAL(1, J4:J78)</f>
-        <v>74.606140350877141</v>
+        <v>63.022222222222176</v>
       </c>
       <c r="L1">
         <f>SUBTOTAL(1, L4:L78)</f>
-        <v>344.42105263157896</v>
-      </c>
-      <c r="M1" s="6">
+        <v>504.27777777777777</v>
+      </c>
+      <c r="M1" s="1">
         <f>SUBTOTAL(1, M4:M78)</f>
-        <v>75.149996202627733</v>
+        <v>63.616321949655216</v>
       </c>
       <c r="Q1">
         <f>SUBTOTAL(1, Q4:Q78)</f>
-        <v>761.81578947368416</v>
-      </c>
-      <c r="R1" s="7">
+        <v>1109.3333333333333</v>
+      </c>
+      <c r="R1" s="2">
         <f>SUBTOTAL(1, R4:R78)</f>
-        <v>74.606140350877141</v>
+        <v>63.022222222222176</v>
       </c>
       <c r="T1">
         <f>SUBTOTAL(1, T4:T78)</f>
-        <v>344.42105263157896</v>
-      </c>
-      <c r="U1" s="6">
+        <v>504.27777777777777</v>
+      </c>
+      <c r="U1" s="1">
         <f>SUBTOTAL(1, U4:U78)</f>
-        <v>75.149996202627733</v>
+        <v>63.616321949655216</v>
       </c>
       <c r="X1">
         <f>SUBTOTAL(1, X4:X83)</f>
-        <v>1203.25</v>
+        <v>1943.55</v>
       </c>
       <c r="Y1">
         <f>SUBTOTAL(1, Y4:Y83)</f>
-        <v>59.891666666666637</v>
+        <v>35.214999999999947</v>
       </c>
       <c r="AA1">
         <f>SUBTOTAL(1, AA4:AA83)</f>
-        <v>552.04999999999995</v>
-      </c>
-      <c r="AB1" s="6">
+        <v>898.1</v>
+      </c>
+      <c r="AB1" s="1">
         <f>SUBTOTAL(1, AB4:AB83)</f>
-        <v>60.169552669552637</v>
+        <v>35.202020202020151</v>
       </c>
       <c r="AE1">
         <f>SUBTOTAL(1, AE4:AE83)</f>
-        <v>1383.05</v>
+        <v>1672.35</v>
       </c>
       <c r="AF1">
         <f>SUBTOTAL(1, AF4:AF83)</f>
-        <v>53.898333333333291</v>
+        <v>44.254999999999953</v>
       </c>
       <c r="AH1">
         <f>SUBTOTAL(1, AH4:AH83)</f>
-        <v>635.07500000000005</v>
-      </c>
-      <c r="AI1" s="6">
+        <v>767.75</v>
+      </c>
+      <c r="AI1" s="1">
         <f>SUBTOTAL(1, AI4:AI83)</f>
-        <v>54.179292929292899</v>
+        <v>44.606782106782063</v>
       </c>
       <c r="AM1">
         <f>SUBTOTAL(1, AM4:AM83)</f>
-        <v>614.72500000000002</v>
+        <v>772.85</v>
       </c>
       <c r="AN1">
         <f>SUBTOTAL(1, AN4:AN83)</f>
-        <v>79.509166667000017</v>
+        <v>74.238333333999989</v>
       </c>
       <c r="AP1">
         <f>SUBTOTAL(1, AP4:AP83)</f>
-        <v>278.89999999999998</v>
-      </c>
-      <c r="AQ1" s="6">
+        <v>352.9</v>
+      </c>
+      <c r="AQ1" s="1">
         <f>SUBTOTAL(1, AQ4:AQ83)</f>
-        <v>79.877344877499979</v>
+        <v>74.538239538500008</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="1" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="5" t="s">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="4" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1331,7 +1331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>14.790764790000001</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>14.71861472</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>14.069264069999999</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>13.2034632</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>13.059163059999999</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>12.409812410000001</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>14.357864360000001</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>14.357864360000001</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>14.790764790000001</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>13.49206349</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>34.704184699999999</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>35.353535350000001</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>33.549783550000001</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>33.549783550000001</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>31.601731600000001</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>31.096681100000001</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>33.116883119999997</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>33.261183260000003</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>34.415584420000002</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -12053,6 +12053,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AK83" xr:uid="{CC9B1FD0-5497-D942-BAFA-79DD8F992F2F}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0.6"/>
+        <filter val="0.85"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
